--- a/data/Stocks.xlsx
+++ b/data/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdabo\PycharmProjects\stockReportingSuite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD2B0CD-5B7B-400F-926C-80A5C863BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8A4AA-D5DC-4348-A393-BE9539547643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2402B9C-C8DB-4D5A-82D8-BC70A09AE748}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Stock ETF</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -416,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC6B40C-1A2F-4912-BCD0-BB9E89025E67}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,6 +459,46 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
